--- a/SPRINT-BACKLOG-TAREAS-TREAS-REALIZADAS-Y-PENDIENTES.xlsx
+++ b/SPRINT-BACKLOG-TAREAS-TREAS-REALIZADAS-Y-PENDIENTES.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\316\Desktop\tercersemestre\Fundamentos\FUNDAMENTOS-PET_MAP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\316\Desktop\grabriel\FUNDAMENTOS-PET_MAP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3FFFFFD-A7C9-48B1-8E21-2C73CBE60F32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB870E20-F726-4DF9-B8EE-27BC9DD6B1FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8190" yWindow="0" windowWidth="12300" windowHeight="10620" xr2:uid="{47AC653A-E6AA-48FD-A461-149F8BE71095}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{47AC653A-E6AA-48FD-A461-149F8BE71095}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="32">
   <si>
     <t>SPRINT</t>
   </si>
@@ -93,12 +93,6 @@
   </si>
   <si>
     <t>L</t>
-  </si>
-  <si>
-    <t>En curso</t>
-  </si>
-  <si>
-    <t>pendiente</t>
   </si>
   <si>
     <t>integrantes</t>
@@ -165,7 +159,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -175,18 +169,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -215,7 +197,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -233,25 +215,19 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -578,8 +554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70FA786D-3591-4663-8F0D-338CC03BB96E}">
   <dimension ref="B2:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -589,92 +565,92 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="36" x14ac:dyDescent="0.25">
-      <c r="B3" s="8">
+      <c r="B3" s="6">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="8">
-        <v>8</v>
-      </c>
-      <c r="E3" s="10">
+      <c r="C3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="6">
+        <v>8</v>
+      </c>
+      <c r="E3" s="8">
         <v>44069</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="8">
         <v>44070</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="8">
         <v>44071</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="8">
         <v>44072</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="8">
         <v>44074</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="8">
         <v>44075</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="14" t="s">
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="75" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>8</v>
@@ -693,7 +669,7 @@
     </row>
     <row r="9" spans="2:10" ht="75" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>8</v>
@@ -722,7 +698,7 @@
     </row>
     <row r="10" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>8</v>
@@ -751,7 +727,7 @@
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>8</v>
@@ -780,7 +756,7 @@
     </row>
     <row r="12" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>8</v>
@@ -809,7 +785,7 @@
     </row>
     <row r="13" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>8</v>
@@ -837,92 +813,92 @@
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="12" t="s">
+      <c r="G15" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H15" s="12" t="s">
+      <c r="H15" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I15" s="12" t="s">
+      <c r="I15" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="12" t="s">
+      <c r="J15" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="16" spans="2:10" ht="36" x14ac:dyDescent="0.25">
-      <c r="B16" s="8">
+      <c r="B16" s="6">
         <v>2</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="7">
         <v>44076</v>
       </c>
-      <c r="D16" s="8">
-        <v>8</v>
-      </c>
-      <c r="E16" s="10">
+      <c r="D16" s="6">
+        <v>8</v>
+      </c>
+      <c r="E16" s="8">
         <v>44076</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="8">
         <v>44070</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16" s="8">
         <v>44071</v>
       </c>
-      <c r="H16" s="10">
+      <c r="H16" s="8">
         <v>44072</v>
       </c>
-      <c r="I16" s="10">
+      <c r="I16" s="8">
         <v>44074</v>
       </c>
-      <c r="J16" s="10">
+      <c r="J16" s="8">
         <v>44044</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="14" t="s">
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>8</v>
@@ -951,7 +927,7 @@
     </row>
     <row r="22" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>8</v>
@@ -980,10 +956,10 @@
     </row>
     <row r="23" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>20</v>
+        <v>29</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>12</v>
@@ -1009,10 +985,10 @@
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>12</v>
@@ -1038,13 +1014,13 @@
     </row>
     <row r="25" spans="2:10" ht="75" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>21</v>
+        <v>31</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E25" s="2">
         <v>3</v>
